--- a/Data_1/1_1.xlsx
+++ b/Data_1/1_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,100 +434,86 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="n">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>60</v>
-      </c>
-      <c r="B3" t="n">
-        <v>50</v>
-      </c>
-      <c r="C3" t="n">
-        <v>51</v>
-      </c>
-      <c r="D3" t="n">
-        <v>42</v>
-      </c>
-      <c r="E3" t="n">
-        <v>55</v>
-      </c>
-      <c r="F3" t="n">
-        <v>46</v>
-      </c>
-      <c r="G3" t="n">
-        <v>49</v>
-      </c>
-      <c r="H3" t="n">
-        <v>52</v>
-      </c>
-      <c r="I3" t="n">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
         <v>40</v>
       </c>
-      <c r="B4" t="n">
-        <v>76</v>
-      </c>
-      <c r="C4" t="n">
-        <v>48</v>
-      </c>
-      <c r="D4" t="n">
-        <v>64</v>
-      </c>
-      <c r="E4" t="n">
-        <v>59</v>
-      </c>
-      <c r="F4" t="n">
-        <v>63</v>
-      </c>
-      <c r="G4" t="n">
-        <v>73</v>
-      </c>
-      <c r="H4" t="n">
-        <v>56</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
